--- a/Resource/excel/table/C-成就-成就配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/C-成就-成就配置-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -174,10 +174,6 @@
     <t>element</t>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>xml=achieve</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -186,14 +182,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>CompleteCondition</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -204,6 +192,42 @@
   <si>
     <t>dynamiccondition</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id,1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CompleteCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Reward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -659,7 +683,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,13 +696,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
@@ -703,7 +727,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
@@ -716,7 +740,7 @@
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
@@ -735,16 +759,16 @@
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
